--- a/Doc/Marvin OKR 20210320.xlsx
+++ b/Doc/Marvin OKR 20210320.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一季度OKR " sheetId="4" r:id="rId1"/>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
   <si>
     <t>Team OKR季度目标 (2020/12/01-2021/02/28)</t>
   </si>
@@ -641,7 +641,7 @@
     <t>计划人：Marvin</t>
   </si>
   <si>
-    <t>日期：2021/03/20</t>
+    <t>日期：2021/03/27</t>
   </si>
   <si>
     <t>报告人：Marvin</t>
@@ -730,15 +730,12 @@
 4. 完成无线产品与TCP服务器与OneNet云平台的 无线通信功能</t>
   </si>
   <si>
-    <t>1.完成从网络同步时间的功能,并将系统时间上传到OneNet平台,方便查看模块的时间是否正确.
-2.编写&lt;无线产品测试指南.docx&gt;初版
-3.研究定时器CTIMER3将模块从低功耗模式唤醒(之前调试好的唤醒模式是从UART3接受中断短信)
-4.调试检测电池电压部分, 发现参考电压没有使用固定的电压值, 而是电源电源,这个有问题.</t>
-  </si>
-  <si>
-    <t>1. 调试低功耗,更低的耗留以及定时唤醒.
-2.完善程序可靠性.
-3.与TCP服务器调试</t>
+    <t>1. 使用功耗测试仪器,将功耗调至920uA左右.
+2. 完成定时唤醒功能,目前为方便测试每5分钟唤醒一次采集数据
+3. 整理无线模块相关的程序逻辑</t>
+  </si>
+  <si>
+    <t>与自己的TCP服务器进行联调</t>
   </si>
   <si>
     <t>2. 点检仪驱动程序定型</t>
@@ -891,6 +888,9 @@
   <si>
     <t>1.完善server.lua文件
 2.研究OneNet平台相关应用,主要是如何控制升级</t>
+  </si>
+  <si>
+    <t>修改server.lua文件,将模块上传的数据分类保存,并将采样数据转换成电压值,方便从OneNet平台复制数据观看波形</t>
   </si>
   <si>
     <t>4. 多通道在线产品的驱动程序开发</t>
@@ -970,9 +970,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1017,9 +1017,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1055,21 +1115,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,52 +1138,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,19 +1160,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1223,7 +1223,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,13 +1301,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,13 +1343,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,139 +1397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1737,11 +1737,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1749,8 +1755,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1762,6 +1768,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1799,38 +1829,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1839,148 +1839,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2618,7 +2618,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="78" customWidth="1"/>
     <col min="4" max="4" width="17" style="26" customWidth="1"/>
@@ -2626,7 +2626,7 @@
     <col min="6" max="6" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="25.2" spans="3:6">
+    <row r="2" ht="25.5" spans="3:6">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" ht="14.55" spans="2:6">
+    <row r="3" ht="15" spans="2:6">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="F5" s="91"/>
     </row>
-    <row r="6" ht="69" spans="2:6">
+    <row r="6" ht="71.25" spans="2:6">
       <c r="B6" s="69"/>
       <c r="C6" s="17" t="s">
         <v>8</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="F6" s="91"/>
     </row>
-    <row r="7" ht="69" spans="2:6">
+    <row r="7" ht="71.25" spans="2:6">
       <c r="B7" s="69"/>
       <c r="C7" s="17" t="s">
         <v>9</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="F11" s="91"/>
     </row>
-    <row r="12" ht="96.6" spans="2:6">
+    <row r="12" ht="99.75" spans="2:6">
       <c r="B12" s="69"/>
       <c r="C12" s="94" t="s">
         <v>15</v>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="F13" s="91"/>
     </row>
-    <row r="14" ht="193.2" spans="2:6">
+    <row r="14" ht="199.5" spans="2:6">
       <c r="B14" s="89" t="s">
         <v>16</v>
       </c>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="F14" s="91"/>
     </row>
-    <row r="15" ht="82.8" spans="2:6">
+    <row r="15" ht="85.5" spans="2:6">
       <c r="B15" s="69"/>
       <c r="C15" s="16" t="s">
         <v>18</v>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="F15" s="91"/>
     </row>
-    <row r="16" ht="82.8" spans="2:6">
+    <row r="16" ht="85.5" spans="2:6">
       <c r="B16" s="69"/>
       <c r="C16" s="16" t="s">
         <v>19</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="F17" s="91"/>
     </row>
-    <row r="18" ht="96.6" spans="2:8">
+    <row r="18" ht="99.75" spans="2:8">
       <c r="B18" s="38" t="s">
         <v>20</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="F18" s="91"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" ht="69" spans="2:8">
+    <row r="19" ht="71.25" spans="2:8">
       <c r="B19" s="38"/>
       <c r="C19" s="17" t="s">
         <v>22</v>
@@ -2859,7 +2859,7 @@
       <c r="F19" s="91"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" ht="55.2" spans="2:6">
+    <row r="20" ht="57" spans="2:6">
       <c r="B20" s="38"/>
       <c r="C20" s="17" t="s">
         <v>23</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="F20" s="91"/>
     </row>
-    <row r="21" ht="41.4" spans="2:6">
+    <row r="21" ht="42.75" spans="2:6">
       <c r="B21" s="38"/>
       <c r="C21" s="17" t="s">
         <v>24</v>
@@ -2922,17 +2922,17 @@
       <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="4" width="15.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="63.1296296296296" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="63.1333333333333" style="25" customWidth="1"/>
     <col min="6" max="6" width="21" style="26" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="26" customWidth="1"/>
-    <col min="8" max="8" width="15.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="15.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="25.2" spans="3:10">
+    <row r="2" ht="25.5" spans="3:10">
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="N3" s="76"/>
       <c r="O3" s="76"/>
     </row>
-    <row r="4" ht="14.55" spans="2:15">
+    <row r="4" ht="15" spans="2:15">
       <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
     </row>
-    <row r="6" ht="14.55" spans="2:15">
+    <row r="6" ht="15" spans="2:15">
       <c r="B6" s="15"/>
       <c r="C6" s="35"/>
       <c r="D6" s="36"/>
@@ -3077,7 +3077,7 @@
       <c r="G10" s="43"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" ht="14.55" spans="2:8">
+    <row r="11" ht="15" spans="2:8">
       <c r="B11" s="15"/>
       <c r="C11" s="35"/>
       <c r="D11" s="36"/>
@@ -3103,7 +3103,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" ht="14.55" spans="2:8">
+    <row r="13" ht="15" spans="2:8">
       <c r="B13" s="15"/>
       <c r="C13" s="40"/>
       <c r="D13" s="41"/>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1" spans="2:8">
+    <row r="14" customHeight="1" spans="2:8">
       <c r="B14" s="15"/>
       <c r="C14" s="45" t="s">
         <v>40</v>
@@ -3157,7 +3157,7 @@
       <c r="G16" s="43"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" ht="14.55" spans="2:8">
+    <row r="17" ht="15" spans="2:8">
       <c r="B17" s="47"/>
       <c r="C17" s="48"/>
       <c r="D17" s="49"/>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="H18" s="54"/>
     </row>
-    <row r="19" ht="14.55" spans="2:8">
+    <row r="19" ht="15" spans="2:8">
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
       <c r="D19" s="55"/>
@@ -3233,7 +3233,7 @@
       <c r="G22" s="43"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" ht="14.55" spans="2:8">
+    <row r="23" ht="15" spans="2:8">
       <c r="B23" s="15"/>
       <c r="C23" s="35"/>
       <c r="D23" s="60"/>
@@ -3259,7 +3259,7 @@
       <c r="G24" s="43"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" ht="14.55" spans="2:8">
+    <row r="25" ht="15" spans="2:8">
       <c r="B25" s="15"/>
       <c r="C25" s="40"/>
       <c r="D25" s="61"/>
@@ -3287,7 +3287,7 @@
       <c r="G26" s="43"/>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" ht="14.55" spans="2:8">
+    <row r="27" ht="15" spans="2:8">
       <c r="B27" s="15"/>
       <c r="C27" s="35"/>
       <c r="D27" s="60"/>
@@ -3300,7 +3300,7 @@
       <c r="G27" s="43"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" ht="14.55" spans="2:8">
+    <row r="28" ht="15" spans="2:8">
       <c r="B28" s="15"/>
       <c r="C28" s="35"/>
       <c r="D28" s="60"/>
@@ -3326,7 +3326,7 @@
       <c r="G29" s="43"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" ht="14.55" spans="2:8">
+    <row r="30" ht="15" spans="2:8">
       <c r="B30" s="15"/>
       <c r="C30" s="40"/>
       <c r="D30" s="61"/>
@@ -3354,7 +3354,7 @@
       <c r="G31" s="43"/>
       <c r="H31" s="24"/>
     </row>
-    <row r="32" ht="14.55" spans="2:8">
+    <row r="32" ht="15" spans="2:8">
       <c r="B32" s="15"/>
       <c r="C32" s="35"/>
       <c r="D32" s="60"/>
@@ -3447,7 +3447,7 @@
       <c r="G38" s="43"/>
       <c r="H38" s="24"/>
     </row>
-    <row r="39" ht="14.55" spans="2:8">
+    <row r="39" ht="15" spans="2:8">
       <c r="B39" s="15"/>
       <c r="C39" s="35"/>
       <c r="D39" s="60"/>
@@ -3460,7 +3460,7 @@
       <c r="G39" s="43"/>
       <c r="H39" s="24"/>
     </row>
-    <row r="40" ht="14.55" spans="2:8">
+    <row r="40" ht="15" spans="2:8">
       <c r="B40" s="15"/>
       <c r="C40" s="35"/>
       <c r="D40" s="60"/>
@@ -3486,7 +3486,7 @@
       <c r="G41" s="43"/>
       <c r="H41" s="24"/>
     </row>
-    <row r="42" ht="14.55" spans="2:8">
+    <row r="42" ht="15" spans="2:8">
       <c r="B42" s="47"/>
       <c r="C42" s="48"/>
       <c r="D42" s="63"/>
@@ -3502,7 +3502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" ht="14.55" spans="7:7">
+    <row r="44" ht="15" spans="7:7">
       <c r="G44" s="65"/>
     </row>
     <row r="45" ht="17.25" customHeight="1" spans="2:8">
@@ -3524,7 +3524,7 @@
       <c r="G45" s="59"/>
       <c r="H45" s="34"/>
     </row>
-    <row r="46" ht="27.6" spans="2:8">
+    <row r="46" ht="28.5" spans="2:8">
       <c r="B46" s="69"/>
       <c r="C46" s="70"/>
       <c r="D46" s="60"/>
@@ -3615,7 +3615,7 @@
       <c r="G52" s="43"/>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" ht="27.6" spans="2:8">
+    <row r="53" ht="28.5" spans="2:8">
       <c r="B53" s="69"/>
       <c r="C53" s="70"/>
       <c r="D53" s="60"/>
@@ -3708,7 +3708,7 @@
       <c r="G59" s="43"/>
       <c r="H59" s="24"/>
     </row>
-    <row r="60" ht="27.6" spans="2:8">
+    <row r="60" ht="28.5" spans="2:8">
       <c r="B60" s="69"/>
       <c r="C60" s="35"/>
       <c r="D60" s="60"/>
@@ -3814,7 +3814,7 @@
       <c r="G67" s="43"/>
       <c r="H67" s="24"/>
     </row>
-    <row r="68" ht="27.6" spans="2:8">
+    <row r="68" spans="2:8">
       <c r="B68" s="69"/>
       <c r="C68" s="70"/>
       <c r="D68" s="60"/>
@@ -3853,7 +3853,7 @@
       <c r="G70" s="43"/>
       <c r="H70" s="24"/>
     </row>
-    <row r="71" ht="41.4" spans="2:8">
+    <row r="71" ht="42.75" spans="2:8">
       <c r="B71" s="69"/>
       <c r="C71" s="70"/>
       <c r="D71" s="60"/>
@@ -3879,7 +3879,7 @@
       <c r="G72" s="43"/>
       <c r="H72" s="24"/>
     </row>
-    <row r="73" ht="27.6" spans="2:8">
+    <row r="73" ht="28.5" spans="2:8">
       <c r="B73" s="69"/>
       <c r="C73" s="70"/>
       <c r="D73" s="60"/>
@@ -3970,7 +3970,7 @@
       <c r="G79" s="43"/>
       <c r="H79" s="24"/>
     </row>
-    <row r="80" ht="14.55" spans="2:8">
+    <row r="80" ht="15" spans="2:8">
       <c r="B80" s="78"/>
       <c r="C80" s="79"/>
       <c r="D80" s="63"/>
@@ -3986,7 +3986,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" ht="14.55" spans="5:7">
+    <row r="82" ht="15" spans="5:7">
       <c r="E82" s="80"/>
       <c r="G82" s="65"/>
     </row>
@@ -4115,7 +4115,7 @@
       <c r="G91" s="43"/>
       <c r="H91" s="24"/>
     </row>
-    <row r="92" ht="14.55" spans="2:8">
+    <row r="92" ht="15" spans="2:8">
       <c r="B92" s="78"/>
       <c r="C92" s="48"/>
       <c r="D92" s="84"/>
@@ -4176,24 +4176,24 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="42.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="42.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="6.75" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="1.87962962962963" customWidth="1"/>
+    <col min="5" max="5" width="1.88333333333333" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
     <col min="8" max="8" width="43.5" customWidth="1"/>
     <col min="9" max="9" width="37.25" customWidth="1"/>
-    <col min="10" max="10" width="11.3796296296296" customWidth="1"/>
+    <col min="10" max="10" width="11.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="25.2" spans="2:10">
+    <row r="2" ht="25.5" spans="2:10">
       <c r="B2" s="1" t="s">
         <v>106</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" ht="25.95" spans="1:10">
+    <row r="3" ht="26.25" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>108</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" ht="110.4" spans="1:10">
+    <row r="5" ht="129" customHeight="1" spans="1:10">
       <c r="A5" s="10" t="s">
         <v>120</v>
       </c>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" ht="55.2" spans="1:10">
+    <row r="6" ht="57" spans="1:10">
       <c r="A6" s="10" t="s">
         <v>127</v>
       </c>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" ht="55.2" spans="1:10">
+    <row r="7" ht="57" spans="1:10">
       <c r="A7" s="10" t="s">
         <v>133</v>
       </c>
@@ -4334,17 +4334,19 @@
         <v>136</v>
       </c>
       <c r="H7" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="17"/>
       <c r="J7" s="24"/>
     </row>
-    <row r="8" ht="97.35" spans="1:10">
+    <row r="8" ht="100.5" spans="1:10">
       <c r="A8" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="20">
         <v>0.35</v>
@@ -4353,10 +4355,10 @@
         <v>122</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>131</v>

--- a/Doc/Marvin OKR 20210320.xlsx
+++ b/Doc/Marvin OKR 20210320.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="16425" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一季度OKR " sheetId="4" r:id="rId1"/>
@@ -727,7 +727,8 @@
 1. 完善程序的各功能的可靠性
 2. 完成OneNet升级无线产品的功能
 3. 完成在定型硬件产品上的低功耗调试
-4. 完成无线产品与TCP服务器与OneNet云平台的 无线通信功能</t>
+4. 完成无线产品与TCP服务器与OneNet云平台的 无线通信功能
+5.更新&lt;无线产品测试指南.doc&gt;</t>
   </si>
   <si>
     <t>1. 使用功耗测试仪器,将功耗调至920uA左右.
@@ -970,9 +971,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1019,13 +1020,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,12 +1034,64 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,31 +1112,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,36 +1144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1160,8 +1160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1223,7 +1224,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,25 +1356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,73 +1374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,37 +1392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,25 +1404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1737,36 +1738,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1783,30 +1758,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1834,153 +1785,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4176,7 +4177,7 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
